--- a/Excel File.xlsx
+++ b/Excel File.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724935E1-CE2F-4117-BD27-F68F9D52BA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2484D7-19EF-4998-A3F8-07D54EBE4CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>anc</t>
+  </si>
+  <si>
+    <t>ddjeke</t>
   </si>
 </sst>
 </file>
@@ -345,25 +351,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>0</v>
       </c>
